--- a/output1.xlsx
+++ b/output1.xlsx
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -582,28 +582,28 @@
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>12</v>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>6</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>number registered</t>
+          <t>Number registered</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
